--- a/medicine/Enfance/Troubles_émotionnels_et_du_comportement/Troubles_émotionnels_et_du_comportement.xlsx
+++ b/medicine/Enfance/Troubles_émotionnels_et_du_comportement/Troubles_émotionnels_et_du_comportement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troubles_%C3%A9motionnels_et_du_comportement</t>
+          <t>Troubles_émotionnels_et_du_comportement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troubles des émotions et du comportement font référence à une classification des troubles de comportement communément utilisée dans le domaine de l'éducation aux États-Unis. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troubles_%C3%A9motionnels_et_du_comportement</t>
+          <t>Troubles_émotionnels_et_du_comportement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Internalisation et externalisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troubles d'« internalisation » regroupent les comportements affectant le "soi". Un sujet présentant des troubles d'internalisation peut par exemple souffrir de manque de confiance, de dépression, d'anxiété, de phobie ou être sujet à des pertes d'intérêts dans ses activités. Ils peuvent aussi s'accompagner de comportement solitaire.
 Les troubles d'« externalisation » quant à eux regroupent les comportements affectant aussi des personnes extérieures. Ils incluent les troubles du déficit de l'attention, le trouble des conduites, et le trouble oppositionnel avec provocation.
-Une étude réalisée par Kathleen Merikangas, de la National Institute of Mental Health (NIMH), décrit que « cette prévalence de troubles émotionnels et psychologiques est même plus forte que celle de maladies courantes comme l'asthme ou le diabète ». Cette étude est basée sur les données de la cohorte « National Comorbidity Survey-Adolescent », portant sur plus de 10 000 adolescents. Le trouble le plus fréquent, rapporté par un tiers des adolescents américains, est l'anxiété [1]. 
+Une étude réalisée par Kathleen Merikangas, de la National Institute of Mental Health (NIMH), décrit que « cette prévalence de troubles émotionnels et psychologiques est même plus forte que celle de maladies courantes comme l'asthme ou le diabète ». Cette étude est basée sur les données de la cohorte « National Comorbidity Survey-Adolescent », portant sur plus de 10 000 adolescents. Le trouble le plus fréquent, rapporté par un tiers des adolescents américains, est l'anxiété . 
 </t>
         </is>
       </c>
